--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Pháp Luật Đại Cương/Danh sách câu hỏi hay làm sai.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/Câu hay làm sai/Pháp Luật Đại Cương/Danh sách câu hỏi hay làm sai.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -43,21 +43,6 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
-  </si>
-  <si>
-    <t>Chức năng của chính phủ:</t>
-  </si>
-  <si>
-    <t>Cả a,b,c</t>
-  </si>
-  <si>
-    <t>Thống nhất quản lý các vấn đề thuộc mọi lĩnh vực đời sống xã hội</t>
-  </si>
-  <si>
-    <t>Thay mặt nhà nước về đối nội, đối ngoại</t>
-  </si>
-  <si>
-    <t>Lập hiến,lập pháp</t>
   </si>
 </sst>
 </file>
@@ -394,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -428,26 +413,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
